--- a/IDB Project/Netlogo/ACT/CSV Variables.xlsx
+++ b/IDB Project/Netlogo/ACT/CSV Variables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isabe\Downloads\tyt13\tyt14-taxis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b65e280a868f31a/Escritorio/tyt13/tyt14-taxis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E25AB0-C020-4D28-B0F6-793A097C6E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{51E25AB0-C020-4D28-B0F6-793A097C6E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B78B4832-94BD-4D34-AC51-55C6DF8AE6B4}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{9A5CB342-ACF8-451B-8941-267385EFFA84}"/>
+    <workbookView xWindow="14295" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{9A5CB342-ACF8-451B-8941-267385EFFA84}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -530,60 +530,6 @@
     <t>5-6 alto</t>
   </si>
   <si>
-    <t>0.091</t>
-  </si>
-  <si>
-    <t>0.028</t>
-  </si>
-  <si>
-    <t>0.043</t>
-  </si>
-  <si>
-    <t>0.048</t>
-  </si>
-  <si>
-    <t>0.012</t>
-  </si>
-  <si>
-    <t>0.045</t>
-  </si>
-  <si>
-    <t>0.304</t>
-  </si>
-  <si>
-    <t>0.605</t>
-  </si>
-  <si>
-    <t>0.220</t>
-  </si>
-  <si>
-    <t>0.244</t>
-  </si>
-  <si>
-    <t>0.428</t>
-  </si>
-  <si>
-    <t>0.194</t>
-  </si>
-  <si>
-    <t>0.104</t>
-  </si>
-  <si>
-    <t>0.649</t>
-  </si>
-  <si>
-    <t>0.143</t>
-  </si>
-  <si>
-    <t>0.101</t>
-  </si>
-  <si>
-    <t>0.498</t>
-  </si>
-  <si>
-    <t>0.180</t>
-  </si>
-  <si>
     <t xml:space="preserve">Weight convinience low-income </t>
   </si>
   <si>
@@ -741,6 +687,60 @@
   </si>
   <si>
     <t>Convinience initial score taxi</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0.11</t>
   </si>
 </sst>
 </file>
@@ -816,7 +816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -850,6 +850,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1186,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABEF978-0631-4DC7-BB63-B9DEBA5ACD8D}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1612,7 +1615,7 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>63</v>
@@ -1974,7 +1977,7 @@
         <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="D55" s="3">
         <v>53</v>
@@ -1995,7 +1998,7 @@
         <v>143</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="D56" s="3">
         <v>54</v>
@@ -2020,7 +2023,7 @@
         <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="D57" s="3">
         <v>55</v>
@@ -2041,7 +2044,7 @@
         <v>145</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D58" s="3">
         <v>56</v>
@@ -2062,7 +2065,7 @@
         <v>146</v>
       </c>
       <c r="C59" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="D59" s="3">
         <v>57</v>
@@ -2087,7 +2090,7 @@
         <v>147</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="D60" s="3">
         <v>58</v>
@@ -2108,7 +2111,7 @@
         <v>148</v>
       </c>
       <c r="C61" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="D61" s="3">
         <v>59</v>
@@ -2129,7 +2132,7 @@
         <v>149</v>
       </c>
       <c r="C62" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="D62" s="3">
         <v>60</v>
@@ -2154,7 +2157,7 @@
         <v>150</v>
       </c>
       <c r="C63" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="D63" s="3">
         <v>61</v>
@@ -2175,7 +2178,7 @@
         <v>151</v>
       </c>
       <c r="C64" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="D64" s="3">
         <v>62</v>
@@ -2196,7 +2199,7 @@
         <v>152</v>
       </c>
       <c r="C65" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="D65" s="3">
         <v>63</v>
@@ -2221,7 +2224,7 @@
         <v>153</v>
       </c>
       <c r="C66" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="D66" s="3">
         <v>64</v>
@@ -2242,7 +2245,7 @@
         <v>154</v>
       </c>
       <c r="C67" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="D67" s="3">
         <v>65</v>
@@ -2263,7 +2266,7 @@
         <v>155</v>
       </c>
       <c r="C68" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="D68" s="3">
         <v>66</v>
@@ -2288,7 +2291,7 @@
         <v>156</v>
       </c>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="D69" s="3">
         <v>67</v>
@@ -2309,7 +2312,7 @@
         <v>157</v>
       </c>
       <c r="C70" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="D70" s="3">
         <v>68</v>
@@ -2330,7 +2333,7 @@
         <v>158</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="D71" s="3">
         <v>69</v>
@@ -2355,7 +2358,7 @@
         <v>159</v>
       </c>
       <c r="C72" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="D72" s="3">
         <v>70</v>
@@ -2370,10 +2373,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="C73" s="12">
         <v>70</v>
@@ -2384,10 +2387,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="B74" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C74" s="12">
         <v>80</v>
@@ -2398,10 +2401,10 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B75" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C75" s="12">
         <v>90</v>
@@ -2412,10 +2415,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="B76" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>46</v>
@@ -2426,10 +2429,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="11" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="B77" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>48</v>
@@ -2440,10 +2443,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="B78" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>51</v>
@@ -2454,10 +2457,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B79" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C79" s="5">
         <v>1000</v>
@@ -2468,10 +2471,10 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="10" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="B80" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>115</v>
@@ -2482,10 +2485,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="10" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B81" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>63</v>
@@ -2496,10 +2499,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="10" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B82" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C82" s="5">
         <v>800</v>
@@ -2510,10 +2513,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="10" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B83" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>115</v>
@@ -2524,10 +2527,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="10" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="B84" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>63</v>
@@ -2538,10 +2541,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B85" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>114</v>
@@ -2552,10 +2555,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="B86" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C86" s="5">
         <v>1</v>
@@ -2566,10 +2569,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B87" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>50</v>
@@ -2580,10 +2583,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="B88" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>49</v>
@@ -2597,7 +2600,7 @@
         <v>120</v>
       </c>
       <c r="B89" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C89" s="5">
         <v>60</v>
@@ -2608,10 +2611,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="B90" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>111</v>
@@ -2622,13 +2625,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B91" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D91" s="3">
         <v>89</v>
@@ -2636,13 +2639,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="B92" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C92" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="D92" s="3">
         <v>90</v>
@@ -2650,13 +2653,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="B93" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C93" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="D93" s="3">
         <v>91</v>
@@ -2664,13 +2667,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="C94" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="D94" s="3">
         <v>92</v>
@@ -2678,13 +2681,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B95" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C95" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="D95" s="3">
         <v>93</v>
@@ -2692,13 +2695,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B96" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C96" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="D96" s="3">
         <v>94</v>
@@ -2707,13 +2710,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="B97" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C97" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="D97" s="3">
         <v>95</v>
@@ -2721,12 +2724,12 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="B98" t="s">
-        <v>233</v>
-      </c>
-      <c r="C98" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C98" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D98" s="3">
